--- a/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,13 +1851,521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>14.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2312,7 +2313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,17 +2324,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2343,14 +2364,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.15</v>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2359,13 +2402,841 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3439</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>34</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>14.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3167,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,17 +3179,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3198,14 +3219,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.48</v>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3214,14 +3257,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.15</v>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3230,13 +3295,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>34</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>14.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,1345 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>83.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6778</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚丰混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8382</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011578</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信核心成长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>43.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.5671</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270050</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发新经济混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1513</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011425</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发优势成长股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1499</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000697</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富移动互联股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>33.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.1280</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010755</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博道睿见一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8433</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>506001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4898</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4600</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002332</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3995</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007750</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发优势增长股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3728</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3684</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008734</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>72.76</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3495</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007291</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通双核策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3309</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>540010</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇丰晋信科技先锋股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2721</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011579</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇丰晋信核心成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2160</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011426</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发优势成长股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1900</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>960003</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合H</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1746</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1656</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001518</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家瑞兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1610</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010994</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时创新经济混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1605</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1183</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0616</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010134</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发新经济混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>540004</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>汇丰晋信2026周期混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>32.56</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010995</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时创新经济混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011149</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>65.37</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>310318</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010025</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发聚丰混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>011150</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>65.37</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007804</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1802,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1853,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>102.87</t>
+          <t>30.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>92.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4770</t>
+          <t>1.3232</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1901,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.64</t>
+          <t>24.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3508</t>
+          <t>0.8037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1929,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>92.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8630</t>
+          <t>0.4525</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1967,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>010755</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>博道睿见一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5980</t>
+          <t>0.3338</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2015,22 +767,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5476</t>
+          <t>0.2450</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2043,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002772</t>
+          <t>540010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
+          <t>汇丰晋信科技先锋股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.1675</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2081,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>540010</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信科技先锋股票</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2709</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2119,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>000965</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>汇丰晋信新动力混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>91.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1883</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2157,150 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>48.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1759</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1590</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>310318</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007804</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3219,36 +1857,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.21</t>
+          <t>102.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3232</t>
+          <t>3.4770</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3267,26 +1905,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.28</t>
+          <t>35.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8037</t>
+          <t>1.3508</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3295,36 +1933,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>010755</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>博道睿见一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4525</t>
+          <t>0.8630</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3333,36 +1971,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3338</t>
+          <t>0.5980</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3381,22 +2019,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2450</t>
+          <t>0.5476</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3409,36 +2047,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>540010</t>
+          <t>002772</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信科技先锋股票</t>
+          <t>光大保德信产业新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1675</t>
+          <t>0.5144</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3447,36 +2085,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>540010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>汇丰晋信科技先锋股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.2709</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3485,36 +2123,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇丰晋信新动力混合</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.1883</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3523,36 +2161,150 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>48.32</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.1759</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3566,96 +2318,1344 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D3" t="n">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.79</v>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8.48</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>8.15</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.79</v>
       </c>
     </row>
@@ -549,6 +566,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1800,7 +1987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2312,7 +2499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688798-艾为电子.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.45</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>8.48</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>8.15</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.79</v>
       </c>
     </row>
@@ -566,6 +583,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1987,7 +2402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2499,7 +2914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
